--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll1-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Dll1-Notch3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H2">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I2">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J2">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N2">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P2">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q2">
-        <v>69.06263025503111</v>
+        <v>86.65887380060778</v>
       </c>
       <c r="R2">
-        <v>621.56367229528</v>
+        <v>779.92986420547</v>
       </c>
       <c r="S2">
-        <v>0.07140120796576503</v>
+        <v>0.07841819638218844</v>
       </c>
       <c r="T2">
-        <v>0.07140120796576503</v>
+        <v>0.07841819638218846</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H3">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I3">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J3">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.988727</v>
       </c>
       <c r="O3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P3">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q3">
-        <v>118.4578024930886</v>
+        <v>118.3741518915633</v>
       </c>
       <c r="R3">
-        <v>1066.120222437798</v>
+        <v>1065.36736702407</v>
       </c>
       <c r="S3">
-        <v>0.122468984452853</v>
+        <v>0.1071175643358351</v>
       </c>
       <c r="T3">
-        <v>0.122468984452853</v>
+        <v>0.1071175643358351</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H4">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I4">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J4">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N4">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P4">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q4">
-        <v>0.874593088991111</v>
+        <v>4.37862427673</v>
       </c>
       <c r="R4">
-        <v>7.871337800919999</v>
+        <v>39.40761849057</v>
       </c>
       <c r="S4">
-        <v>0.000904208293282111</v>
+        <v>0.003962246488530097</v>
       </c>
       <c r="T4">
-        <v>0.000904208293282111</v>
+        <v>0.003962246488530097</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H5">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I5">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J5">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N5">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P5">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q5">
-        <v>540.4628293843093</v>
+        <v>657.5836068543379</v>
       </c>
       <c r="R5">
-        <v>4864.165464458784</v>
+        <v>5918.25246168904</v>
       </c>
       <c r="S5">
-        <v>0.5587638167867731</v>
+        <v>0.5950518182207164</v>
       </c>
       <c r="T5">
-        <v>0.5587638167867731</v>
+        <v>0.5950518182207164</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.77869133333333</v>
+        <v>17.76613666666667</v>
       </c>
       <c r="H6">
-        <v>53.336074</v>
+        <v>53.29841</v>
       </c>
       <c r="I6">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="J6">
-        <v>0.7554955974693992</v>
+        <v>0.7872390387208499</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N6">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P6">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q6">
-        <v>1.893270618778</v>
+        <v>2.97181274478</v>
       </c>
       <c r="R6">
-        <v>17.039435569002</v>
+        <v>26.74631470302</v>
       </c>
       <c r="S6">
-        <v>0.001957379970725816</v>
+        <v>0.002689213293579799</v>
       </c>
       <c r="T6">
-        <v>0.001957379970725816</v>
+        <v>0.002689213293579799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>2.470084</v>
       </c>
       <c r="I7">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J7">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N7">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P7">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q7">
-        <v>3.198407479164444</v>
+        <v>4.016155409380889</v>
       </c>
       <c r="R7">
-        <v>28.78566731248</v>
+        <v>36.145398684428</v>
       </c>
       <c r="S7">
-        <v>0.003306710977206699</v>
+        <v>0.003634245978304072</v>
       </c>
       <c r="T7">
-        <v>0.003306710977206698</v>
+        <v>0.003634245978304073</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>2.470084</v>
       </c>
       <c r="I8">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J8">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.988727</v>
       </c>
       <c r="O8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P8">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q8">
         <v>5.485981638118666</v>
@@ -948,10 +948,10 @@
         <v>49.373834743068</v>
       </c>
       <c r="S8">
-        <v>0.005671746274261602</v>
+        <v>0.004964301595205502</v>
       </c>
       <c r="T8">
-        <v>0.005671746274261601</v>
+        <v>0.004964301595205503</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,40 +980,40 @@
         <v>2.470084</v>
       </c>
       <c r="I9">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J9">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N9">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P9">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q9">
-        <v>0.04050388852444444</v>
+        <v>0.202924810852</v>
       </c>
       <c r="R9">
-        <v>0.3645349967199999</v>
+        <v>1.826323297668</v>
       </c>
       <c r="S9">
-        <v>4.187541883760418E-05</v>
+        <v>0.000183628022963056</v>
       </c>
       <c r="T9">
-        <v>4.187541883760417E-05</v>
+        <v>0.000183628022963056</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>2.470084</v>
       </c>
       <c r="I10">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J10">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N10">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P10">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q10">
-        <v>25.02974979854934</v>
+        <v>30.47533211503289</v>
       </c>
       <c r="R10">
-        <v>225.267748186944</v>
+        <v>274.2779890352959</v>
       </c>
       <c r="S10">
-        <v>0.02587729954821834</v>
+        <v>0.02757733252001139</v>
       </c>
       <c r="T10">
-        <v>0.02587729954821833</v>
+        <v>0.02757733252001139</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>2.470084</v>
       </c>
       <c r="I11">
-        <v>0.03498828180303642</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="J11">
-        <v>0.03498828180303641</v>
+        <v>0.03648413815195897</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N11">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P11">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q11">
-        <v>0.08768057174799999</v>
+        <v>0.137726943672</v>
       </c>
       <c r="R11">
-        <v>0.789125145732</v>
+        <v>1.239542493048</v>
       </c>
       <c r="S11">
-        <v>9.064958451216913E-05</v>
+        <v>0.0001246300354749563</v>
       </c>
       <c r="T11">
-        <v>9.064958451216911E-05</v>
+        <v>0.0001246300354749563</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H12">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I12">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J12">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N12">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P12">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q12">
-        <v>19.12212947348889</v>
+        <v>18.95154083986289</v>
       </c>
       <c r="R12">
-        <v>172.0991652614</v>
+        <v>170.563867558766</v>
       </c>
       <c r="S12">
-        <v>0.01976963718646384</v>
+        <v>0.01714937647060686</v>
       </c>
       <c r="T12">
-        <v>0.01976963718646383</v>
+        <v>0.01714937647060686</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H13">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I13">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J13">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.988727</v>
       </c>
       <c r="O13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P13">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q13">
-        <v>32.79871369006833</v>
+        <v>25.88739589576067</v>
       </c>
       <c r="R13">
-        <v>295.188423210615</v>
+        <v>232.986563061846</v>
       </c>
       <c r="S13">
-        <v>0.03390933372427635</v>
+        <v>0.02342567825019417</v>
       </c>
       <c r="T13">
-        <v>0.03390933372427634</v>
+        <v>0.02342567825019417</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,46 +1284,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H14">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I14">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J14">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N14">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P14">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q14">
-        <v>0.2421582007888889</v>
+        <v>0.957566988394</v>
       </c>
       <c r="R14">
-        <v>2.1794238071</v>
+        <v>8.618102895546</v>
       </c>
       <c r="S14">
-        <v>0.0002503580878876731</v>
+        <v>0.0008665087930608996</v>
       </c>
       <c r="T14">
-        <v>0.0002503580878876729</v>
+        <v>0.0008665087930608995</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H15">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I15">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J15">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N15">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P15">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q15">
-        <v>149.6438835435467</v>
+        <v>143.8078067988569</v>
       </c>
       <c r="R15">
-        <v>1346.79495189192</v>
+        <v>1294.270261189712</v>
       </c>
       <c r="S15">
-        <v>0.1547110790631832</v>
+        <v>0.1301326493209687</v>
       </c>
       <c r="T15">
-        <v>0.1547110790631831</v>
+        <v>0.1301326493209687</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>4.922581666666667</v>
+        <v>3.885299333333334</v>
       </c>
       <c r="H16">
-        <v>14.767745</v>
+        <v>11.655898</v>
       </c>
       <c r="I16">
-        <v>0.2091823693669455</v>
+        <v>0.1721623203571791</v>
       </c>
       <c r="J16">
-        <v>0.2091823693669454</v>
+        <v>0.172162320357179</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N16">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P16">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q16">
-        <v>0.5242106442650001</v>
+        <v>0.6499095606840001</v>
       </c>
       <c r="R16">
-        <v>4.717895798385</v>
+        <v>5.849186046156</v>
       </c>
       <c r="S16">
-        <v>0.0005419613051344258</v>
+        <v>0.0005881075223484188</v>
       </c>
       <c r="T16">
-        <v>0.0005419613051344257</v>
+        <v>0.0005881075223484187</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H17">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I17">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J17">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.884573333333333</v>
+        <v>4.877755666666666</v>
       </c>
       <c r="N17">
-        <v>11.65372</v>
+        <v>14.633267</v>
       </c>
       <c r="O17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870688</v>
       </c>
       <c r="P17">
-        <v>0.09450909866970746</v>
+        <v>0.09961167132870689</v>
       </c>
       <c r="Q17">
-        <v>0.03050943896</v>
+        <v>0.4529223765097777</v>
       </c>
       <c r="R17">
-        <v>0.27458495064</v>
+        <v>4.076301388588</v>
       </c>
       <c r="S17">
-        <v>3.154254027188721E-05</v>
+        <v>0.0004098524976074885</v>
       </c>
       <c r="T17">
-        <v>3.15425402718872E-05</v>
+        <v>0.0004098524976074885</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H18">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I18">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J18">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.988727</v>
       </c>
       <c r="O18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="P18">
-        <v>0.1621041669376684</v>
+        <v>0.1360673938501395</v>
       </c>
       <c r="Q18">
-        <v>0.052330487286</v>
+        <v>0.6186821942253332</v>
       </c>
       <c r="R18">
-        <v>0.470974385574</v>
+        <v>5.568139748028</v>
       </c>
       <c r="S18">
-        <v>5.410248627745125E-05</v>
+        <v>0.0005598496689047114</v>
       </c>
       <c r="T18">
-        <v>5.410248627745123E-05</v>
+        <v>0.0005598496689047115</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,46 +1594,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H19">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I19">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J19">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.04919333333333333</v>
+        <v>0.246459</v>
       </c>
       <c r="N19">
-        <v>0.14758</v>
+        <v>0.739377</v>
       </c>
       <c r="O19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="P19">
-        <v>0.001196841247402154</v>
+        <v>0.00503309197542868</v>
       </c>
       <c r="Q19">
-        <v>0.00038636444</v>
+        <v>0.022884868292</v>
       </c>
       <c r="R19">
-        <v>0.00347727996</v>
+        <v>0.205963814628</v>
       </c>
       <c r="S19">
-        <v>3.994473947653722E-07</v>
+        <v>2.070867087462643E-05</v>
       </c>
       <c r="T19">
-        <v>3.994473947653722E-07</v>
+        <v>2.070867087462643E-05</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H20">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I20">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J20">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>30.399472</v>
+        <v>37.01331466666667</v>
       </c>
       <c r="N20">
-        <v>91.19841600000001</v>
+        <v>111.039944</v>
       </c>
       <c r="O20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="P20">
-        <v>0.7395990375832805</v>
+        <v>0.7558718368280999</v>
       </c>
       <c r="Q20">
-        <v>0.238757453088</v>
+        <v>3.436858995601777</v>
       </c>
       <c r="R20">
-        <v>2.148817077792</v>
+        <v>30.93173096041599</v>
       </c>
       <c r="S20">
-        <v>0.0002468421851058995</v>
+        <v>0.003110036766403269</v>
       </c>
       <c r="T20">
-        <v>0.0002468421851058994</v>
+        <v>0.003110036766403269</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.007854</v>
+        <v>0.09285466666666665</v>
       </c>
       <c r="H21">
-        <v>0.023562</v>
+        <v>0.278564</v>
       </c>
       <c r="I21">
-        <v>0.0003337513606189685</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="J21">
-        <v>0.0003337513606189684</v>
+        <v>0.004114502770011991</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>0.106491</v>
+        <v>0.167274</v>
       </c>
       <c r="N21">
-        <v>0.319473</v>
+        <v>0.501822</v>
       </c>
       <c r="O21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="P21">
-        <v>0.002590855561941376</v>
+        <v>0.00341600601762507</v>
       </c>
       <c r="Q21">
-        <v>0.000836380314</v>
+        <v>0.015532171512</v>
       </c>
       <c r="R21">
-        <v>0.007527422826</v>
+        <v>0.139789543608</v>
       </c>
       <c r="S21">
-        <v>8.647015689651563E-07</v>
+        <v>1.405516622189598E-05</v>
       </c>
       <c r="T21">
-        <v>8.647015689651562E-07</v>
+        <v>1.405516622189598E-05</v>
       </c>
     </row>
   </sheetData>
